--- a/biology/Botanique/Gyrostemonaceae/Gyrostemonaceae.xlsx
+++ b/biology/Botanique/Gyrostemonaceae/Gyrostemonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Gyrostémonacées est une famille de plantes dicotylédones qui comprend 18 espèces réparties en 3 à 6 genres.
 Ce sont des arbres et surtout des arbustes, des zones arides, à feuilles alternes, des régions tempérées à tropicales d'Australie.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Gyrostemon, dérivé du grec γύρος /  gyros, rond et στημων / stemon, « fil ; étamine », littéralement « étamines rondes ».
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Brassicales.
 </t>
@@ -574,19 +590,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010) :
 Codonocarpus A.Cunn. ex Endl.
 Cypselocarpus (en) F.Muell.
 Gyrostemon (en) Desf.
 Tersonia Moq.
 Walteranthus (en) Keighery
-Selon NCBI  (21 juin 2010)[2] :
+Selon NCBI  (21 juin 2010) :
 Codonocarpus
 Gyrostemon
 Tersonia
-Selon DELTA Angio           (21 juin 2010)[3] :
+Selon DELTA Angio           (21 juin 2010) :
 Codonocarpus
 Cypselocarpus
 Didymotheca
@@ -620,9 +638,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) :
 genre Codonocarpus
 Codonocarpus attenuatus
 Codonocarpus cotinifolius
